--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H2">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I2">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J2">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>114.3865632023934</v>
+        <v>42.05160772145455</v>
       </c>
       <c r="R2">
-        <v>1029.47906882154</v>
+        <v>378.464469493091</v>
       </c>
       <c r="S2">
-        <v>0.002148743083643768</v>
+        <v>0.0007487771762408797</v>
       </c>
       <c r="T2">
-        <v>0.002542196396265479</v>
+        <v>0.0008985919980662878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H3">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I3">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J3">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>5767.242873222523</v>
+        <v>3891.51967807302</v>
       </c>
       <c r="R3">
-        <v>51905.18585900271</v>
+        <v>35023.67710265718</v>
       </c>
       <c r="S3">
-        <v>0.1083372285047499</v>
+        <v>0.06929297769385123</v>
       </c>
       <c r="T3">
-        <v>0.1281747054743865</v>
+        <v>0.08315706895671944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H4">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I4">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J4">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>12.49389718457</v>
+        <v>9.964499267882889</v>
       </c>
       <c r="R4">
-        <v>112.44507466113</v>
+        <v>89.680493410946</v>
       </c>
       <c r="S4">
-        <v>0.0002346969295300885</v>
+        <v>0.0001774293547557516</v>
       </c>
       <c r="T4">
-        <v>0.0002776719529699158</v>
+        <v>0.0002129292978800581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H5">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I5">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J5">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>1801.04744489319</v>
+        <v>1505.128908547335</v>
       </c>
       <c r="R5">
-        <v>10806.28466935914</v>
+        <v>9030.773451284009</v>
       </c>
       <c r="S5">
-        <v>0.03383254232126058</v>
+        <v>0.02680054901790585</v>
       </c>
       <c r="T5">
-        <v>0.02668504758907916</v>
+        <v>0.02144185627396504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.45181500000001</v>
+        <v>63.73255033333334</v>
       </c>
       <c r="H6">
-        <v>283.355445</v>
+        <v>191.197651</v>
       </c>
       <c r="I6">
-        <v>0.1457155743604623</v>
+        <v>0.09718402276460011</v>
       </c>
       <c r="J6">
-        <v>0.1590548236774281</v>
+        <v>0.1059076069828809</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>61.87746194643</v>
+        <v>9.226561311756667</v>
       </c>
       <c r="R6">
-        <v>556.89715751787</v>
+        <v>83.03905180581</v>
       </c>
       <c r="S6">
-        <v>0.001162363521277995</v>
+        <v>0.0001642895218464084</v>
       </c>
       <c r="T6">
-        <v>0.001375202264726993</v>
+        <v>0.0001971604562501077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>376.250897</v>
       </c>
       <c r="I7">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J7">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>151.8871359950316</v>
+        <v>82.75182797873077</v>
       </c>
       <c r="R7">
-        <v>1366.984223955284</v>
+        <v>744.766451808577</v>
       </c>
       <c r="S7">
-        <v>0.002853188554903236</v>
+        <v>0.001473491346469304</v>
       </c>
       <c r="T7">
-        <v>0.003375631883287275</v>
+        <v>0.001768306480446578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>376.250897</v>
       </c>
       <c r="I8">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J8">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>7657.979906709863</v>
@@ -948,10 +948,10 @@
         <v>68921.81916038877</v>
       </c>
       <c r="S8">
-        <v>0.1438545830781763</v>
+        <v>0.1363591282463639</v>
       </c>
       <c r="T8">
-        <v>0.1701955927031814</v>
+        <v>0.1636417687310214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>376.250897</v>
       </c>
       <c r="I9">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J9">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>16.58990538445534</v>
+        <v>19.60877535936244</v>
       </c>
       <c r="R9">
-        <v>149.309148460098</v>
+        <v>176.478978234262</v>
       </c>
       <c r="S9">
-        <v>0.0003116401389740069</v>
+        <v>0.0003491567680451407</v>
       </c>
       <c r="T9">
-        <v>0.000368704124872817</v>
+        <v>0.0004190158137714362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>376.250897</v>
       </c>
       <c r="I10">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J10">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>2391.504128959374</v>
+        <v>2961.888386074187</v>
       </c>
       <c r="R10">
-        <v>14349.02477375624</v>
+        <v>17771.33031644512</v>
       </c>
       <c r="S10">
-        <v>0.04492422722338988</v>
+        <v>0.05273982475903715</v>
       </c>
       <c r="T10">
-        <v>0.03543349269987989</v>
+        <v>0.04219464838730903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>376.250897</v>
       </c>
       <c r="I11">
-        <v>0.1934870726059072</v>
+        <v>0.1912449004891238</v>
       </c>
       <c r="J11">
-        <v>0.2111994709712006</v>
+        <v>0.2084117242969288</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>82.16341338147799</v>
+        <v>18.15661411956334</v>
       </c>
       <c r="R11">
-        <v>739.4707204333019</v>
+        <v>163.40952707607</v>
       </c>
       <c r="S11">
-        <v>0.001543433610463791</v>
+        <v>0.0003232993692083187</v>
       </c>
       <c r="T11">
-        <v>0.001826049559979208</v>
+        <v>0.0003879848843803645</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H12">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I12">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J12">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>156.3770987635027</v>
+        <v>121.5073473053086</v>
       </c>
       <c r="R12">
-        <v>1407.393888871524</v>
+        <v>1093.566125747777</v>
       </c>
       <c r="S12">
-        <v>0.002937532171622446</v>
+        <v>0.002163577882930032</v>
       </c>
       <c r="T12">
-        <v>0.003475419540594341</v>
+        <v>0.002596465055939005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H13">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I13">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J13">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>7884.358819167282</v>
+        <v>11244.47455614915</v>
       </c>
       <c r="R13">
-        <v>70959.22937250554</v>
+        <v>101200.2710053424</v>
       </c>
       <c r="S13">
-        <v>0.1481070941145032</v>
+        <v>0.2002207849515854</v>
       </c>
       <c r="T13">
-        <v>0.1752267750320138</v>
+        <v>0.2402808217356333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H14">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I14">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J14">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>17.080322542042</v>
+        <v>28.79223741660689</v>
       </c>
       <c r="R14">
-        <v>153.722902878378</v>
+        <v>259.130136749462</v>
       </c>
       <c r="S14">
-        <v>0.0003208525888104449</v>
+        <v>0.0005126788581608644</v>
       </c>
       <c r="T14">
-        <v>0.0003796034533934024</v>
+        <v>0.0006152552910786261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H15">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I15">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J15">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>2462.199809863014</v>
+        <v>4349.042306337655</v>
       </c>
       <c r="R15">
-        <v>14773.19885917808</v>
+        <v>26094.25383802592</v>
       </c>
       <c r="S15">
-        <v>0.04625224033203099</v>
+        <v>0.07743969360368112</v>
       </c>
       <c r="T15">
-        <v>0.03648094850933409</v>
+        <v>0.06195584945072016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.124439</v>
+        <v>184.1540323333334</v>
       </c>
       <c r="H16">
-        <v>387.373317</v>
+        <v>552.4620970000001</v>
       </c>
       <c r="I16">
-        <v>0.1992067785341921</v>
+        <v>0.2808114468489298</v>
       </c>
       <c r="J16">
-        <v>0.2174427762726615</v>
+        <v>0.3060180830465028</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>84.59226072655801</v>
+        <v>26.65997926089667</v>
       </c>
       <c r="R16">
-        <v>761.3303465390221</v>
+        <v>239.9398133480701</v>
       </c>
       <c r="S16">
-        <v>0.001589059327225058</v>
+        <v>0.0004747115525723384</v>
       </c>
       <c r="T16">
-        <v>0.001880029737325879</v>
+        <v>0.0005696915131316718</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H17">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I17">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J17">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>197.5035194850747</v>
+        <v>106.9243921950153</v>
       </c>
       <c r="R17">
-        <v>1185.021116910448</v>
+        <v>641.5463531700921</v>
       </c>
       <c r="S17">
-        <v>0.003710088926598476</v>
+        <v>0.001903911617110619</v>
       </c>
       <c r="T17">
-        <v>0.002926292048226635</v>
+        <v>0.001523229961637858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H18">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I18">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J18">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>9957.907059164359</v>
+        <v>9894.945730710024</v>
       </c>
       <c r="R18">
-        <v>59747.44235498616</v>
+        <v>59369.67438426014</v>
       </c>
       <c r="S18">
-        <v>0.1870585436078489</v>
+        <v>0.1761908741367266</v>
       </c>
       <c r="T18">
-        <v>0.1475403796356886</v>
+        <v>0.1409620152743853</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H19">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I19">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J19">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>21.572364768676</v>
+        <v>25.33667760822534</v>
       </c>
       <c r="R19">
-        <v>129.434188612056</v>
+        <v>152.020065649352</v>
       </c>
       <c r="S19">
-        <v>0.0004052352679966099</v>
+        <v>0.0004511486466933178</v>
       </c>
       <c r="T19">
-        <v>0.0003196248838937349</v>
+        <v>0.000360942771512963</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H20">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I20">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J20">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>3109.746452444892</v>
+        <v>3827.083016363777</v>
       </c>
       <c r="R20">
-        <v>12438.98580977957</v>
+        <v>15308.33206545511</v>
       </c>
       <c r="S20">
-        <v>0.05841635585950441</v>
+        <v>0.06814560891973374</v>
       </c>
       <c r="T20">
-        <v>0.03071684102816933</v>
+        <v>0.03634672685703896</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>163.083542</v>
+        <v>162.052406</v>
       </c>
       <c r="H21">
-        <v>326.167084</v>
+        <v>324.104812</v>
       </c>
       <c r="I21">
-        <v>0.2515971979074048</v>
+        <v>0.2471092813859239</v>
       </c>
       <c r="J21">
-        <v>0.183086116573482</v>
+        <v>0.1795271274047008</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>106.839616202124</v>
+        <v>23.46032681662</v>
       </c>
       <c r="R21">
-        <v>641.0376972127441</v>
+        <v>140.76196089972</v>
       </c>
       <c r="S21">
-        <v>0.00200697424545635</v>
+        <v>0.0004177380656596045</v>
       </c>
       <c r="T21">
-        <v>0.001582978977503677</v>
+        <v>0.0003342125401256912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H22">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I22">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J22">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>164.8445661972164</v>
+        <v>79.46565900258078</v>
       </c>
       <c r="R22">
-        <v>1483.601095774948</v>
+        <v>715.190931023227</v>
       </c>
       <c r="S22">
-        <v>0.003096592917699574</v>
+        <v>0.001414977333333093</v>
       </c>
       <c r="T22">
-        <v>0.003663605675336362</v>
+        <v>0.001698085023853956</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H23">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I23">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J23">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>8311.279078366988</v>
+        <v>7353.872836158162</v>
       </c>
       <c r="R23">
-        <v>74801.5117053029</v>
+        <v>66184.85552542347</v>
       </c>
       <c r="S23">
-        <v>0.1561267594365537</v>
+        <v>0.1309441525557576</v>
       </c>
       <c r="T23">
-        <v>0.1847149099496604</v>
+        <v>0.1571433684329106</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H24">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I24">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J24">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>18.00518350970066</v>
+        <v>18.83008864246244</v>
       </c>
       <c r="R24">
-        <v>162.046651587306</v>
+        <v>169.470797782162</v>
       </c>
       <c r="S24">
-        <v>0.0003382260333125964</v>
+        <v>0.0003352913566459187</v>
       </c>
       <c r="T24">
-        <v>0.0004001581247918981</v>
+        <v>0.0004023762204069749</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H25">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I25">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J25">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>2595.522379920677</v>
+        <v>2844.268437815912</v>
       </c>
       <c r="R25">
-        <v>15573.13427952407</v>
+        <v>17065.61062689547</v>
       </c>
       <c r="S25">
-        <v>0.04875669489631518</v>
+        <v>0.05064546648123232</v>
       </c>
       <c r="T25">
-        <v>0.03845630964530798</v>
+        <v>0.04051905102738641</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>136.1162363333333</v>
+        <v>120.4365156666667</v>
       </c>
       <c r="H26">
-        <v>408.348709</v>
+        <v>361.309547</v>
       </c>
       <c r="I26">
-        <v>0.2099933765920337</v>
+        <v>0.1836503485114226</v>
       </c>
       <c r="J26">
-        <v>0.2292168125052277</v>
+        <v>0.2001354582689865</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>89.17274097916599</v>
+        <v>17.43559437306333</v>
       </c>
       <c r="R26">
-        <v>802.5546688124939</v>
+        <v>156.92034935757</v>
       </c>
       <c r="S26">
-        <v>0.001675103308152639</v>
+        <v>0.0003104607844537401</v>
       </c>
       <c r="T26">
-        <v>0.001981829110131071</v>
+        <v>0.0003725775644285491</v>
       </c>
     </row>
   </sheetData>
